--- a/data/trans_dic/P16A11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Edad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1790,7 +1790,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.00110644060678757</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.006319694543464989</v>
+        <v>0.006319694543464987</v>
       </c>
     </row>
     <row r="5">
@@ -746,34 +746,34 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.008833471839739178</v>
+        <v>0.009065746130859328</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01261145254994298</v>
+        <v>0.01169905621406799</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.03839307467036599</v>
+        <v>0.0357782914973817</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.01232560186977087</v>
+        <v>0.01136818275013063</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03420054165128938</v>
+        <v>0.03388900566679612</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.004545611146165311</v>
+        <v>0.004729169573463984</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.005477179517644067</v>
+        <v>0.005581502231019459</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.005520357823219781</v>
+        <v>0.007053770843851621</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02416486663860164</v>
+        <v>0.02148003809049582</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.003363284225542201</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.009095132525879731</v>
+        <v>0.009095132525879729</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.004771444605771465</v>
@@ -821,7 +821,7 @@
         <v>0.006523731203710127</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.006838085078763946</v>
+        <v>0.006838085078763945</v>
       </c>
     </row>
     <row r="8">
@@ -835,37 +835,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004214458001016288</v>
+        <v>0.004281502822624158</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003379730285791099</v>
+        <v>0.003313243547732948</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002982101701984063</v>
+        <v>0.002796656797442697</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006250802572750953</v>
+        <v>0.005982026684046403</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003175416574900267</v>
+        <v>0.003305974376124473</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002021094119986451</v>
+        <v>0.002032522806312458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006633563272108381</v>
+        <v>0.006149432802262125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002578031151053361</v>
+        <v>0.002621923796741779</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002799397208195934</v>
+        <v>0.00268377532586315</v>
       </c>
     </row>
     <row r="9">
@@ -876,40 +876,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008170704019445623</v>
+        <v>0.008712796185448068</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02306608065982877</v>
+        <v>0.02263422912074662</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02293963043541848</v>
+        <v>0.02131331203110346</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01573952780658924</v>
+        <v>0.01329955207671745</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01657896915673513</v>
+        <v>0.01667010116089382</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03017755429275873</v>
+        <v>0.02693708646838832</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01186844758893133</v>
+        <v>0.01171817999423905</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02137241046354078</v>
+        <v>0.02111379849596525</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.00944898184931375</v>
+        <v>0.009669904070856829</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01972798087384286</v>
+        <v>0.02065784034091526</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01339620420767419</v>
+        <v>0.01320340785795274</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01300933891606682</v>
+        <v>0.01328252692006875</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.02745347926534349</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02812585043806692</v>
+        <v>0.02812585043806691</v>
       </c>
     </row>
     <row r="11">
@@ -968,40 +968,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0156669221238634</v>
+        <v>0.01606831074487548</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03154677541864069</v>
+        <v>0.03037724491038258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01919477922263608</v>
+        <v>0.01956110621017849</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02230171067256391</v>
+        <v>0.02233000998342136</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02736173453335046</v>
+        <v>0.02793989336047698</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02086244164612873</v>
+        <v>0.01990640974211269</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01318582236341524</v>
+        <v>0.01335076949657945</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01327570776463458</v>
+        <v>0.01300050580486866</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02557657201863457</v>
+        <v>0.02591684837741568</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02990475495469336</v>
+        <v>0.03024889989602485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02014543403305466</v>
+        <v>0.01858254536320105</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02004301576483529</v>
+        <v>0.01975875195250438</v>
       </c>
     </row>
     <row r="12">
@@ -1012,40 +1012,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03978973355167924</v>
+        <v>0.03936251304355316</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06661957116345178</v>
+        <v>0.06560879414308135</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04880786264745833</v>
+        <v>0.04780490009143334</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05622227592963447</v>
+        <v>0.05316027859753924</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05811648377554936</v>
+        <v>0.05794937465455868</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04714284617098492</v>
+        <v>0.0481319154024307</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03930841210360246</v>
+        <v>0.03813722330643895</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03234575431915215</v>
+        <v>0.0311501268158869</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04515154755854816</v>
+        <v>0.04561166848279203</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0516832410146199</v>
+        <v>0.05150306926578666</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03827737644260646</v>
+        <v>0.03765754584949098</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03784368153482313</v>
+        <v>0.03817597556280419</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.1375700593477894</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1404376619672043</v>
+        <v>0.1404376619672042</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1060928993781753</v>
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1019166238274078</v>
+        <v>0.09887983327257492</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09357187886024265</v>
+        <v>0.08958001885251074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1104676231124437</v>
+        <v>0.1101460234799935</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1154023837453445</v>
+        <v>0.1167310637833299</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08095903776355193</v>
+        <v>0.08028962906319605</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1067828944924176</v>
+        <v>0.1049219437248178</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07049820817375604</v>
+        <v>0.07419436567270986</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.104546247979359</v>
+        <v>0.1025430801393556</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09823509473910311</v>
+        <v>0.09924040394219009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1057306047005111</v>
+        <v>0.1051637492393229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09950458010135857</v>
+        <v>0.09716156067088878</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1134520067468602</v>
+        <v>0.1148110386488891</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1602058220159211</v>
+        <v>0.1597473656653129</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1474821433968775</v>
+        <v>0.1453588020823833</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1702000157707739</v>
+        <v>0.1694636090323484</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1697309171542731</v>
+        <v>0.1708794120482922</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.135965643069461</v>
+        <v>0.1330566249925861</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1625363002579612</v>
+        <v>0.1617622762721025</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1196195765123922</v>
+        <v>0.1214186172127877</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1414473624303359</v>
+        <v>0.1408575553819437</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1390129981422409</v>
+        <v>0.1396878943050293</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1446605910363871</v>
+        <v>0.1455849975910859</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1352520288244222</v>
+        <v>0.1351047444328938</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1460300853080013</v>
+        <v>0.1480131162914567</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.2230195102162524</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2773353586766512</v>
+        <v>0.2773353586766511</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.323422803652277</v>
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2612610432586239</v>
+        <v>0.2559486528102889</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3088783023829112</v>
+        <v>0.3039851090350993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1875146133259433</v>
+        <v>0.188260824878931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2465891228802269</v>
+        <v>0.2400335440335786</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.280311036495444</v>
+        <v>0.2757438098742396</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.354111886786251</v>
+        <v>0.3495373909420704</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2576642818716</v>
+        <v>0.2615600430663931</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2299145106078377</v>
+        <v>0.2298687605667443</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2789394894601595</v>
+        <v>0.2813104483299531</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3414282530227502</v>
+        <v>0.3409007002616355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2352537382303312</v>
+        <v>0.2358317656756574</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2453068973968651</v>
+        <v>0.2449356108724307</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3514613934969457</v>
+        <v>0.3556761094235726</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4016259790619281</v>
+        <v>0.4022450403244148</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2619925274131386</v>
+        <v>0.2654795594422412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3146613432643912</v>
+        <v>0.3101352387002091</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.378463329594385</v>
+        <v>0.3712906487829782</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.448786415873223</v>
+        <v>0.4485329026131346</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3429110122180057</v>
+        <v>0.348180955295223</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2847249031532546</v>
+        <v>0.2845918876479679</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3463013638151974</v>
+        <v>0.348114976587705</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4110978038870531</v>
+        <v>0.410627085210178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2944151813950023</v>
+        <v>0.2933155388487703</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2893983287175705</v>
+        <v>0.2895942382331163</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.4525783016519696</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4609012784988768</v>
+        <v>0.4609012784988767</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4242968640970704</v>
@@ -1376,40 +1376,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3285506691107324</v>
+        <v>0.3311578518010135</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4486746486924378</v>
+        <v>0.4511896584888044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3640332354925387</v>
+        <v>0.3673329574958195</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4289357982693182</v>
+        <v>0.4298852054067648</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.406278253950744</v>
+        <v>0.406167971394992</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5149156853802852</v>
+        <v>0.5185507248531893</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3998695063443286</v>
+        <v>0.4015184429355003</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4281941768855312</v>
+        <v>0.4262832878000571</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3864952346171893</v>
+        <v>0.3885939661615123</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5003912747666242</v>
+        <v>0.5011274803720124</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4002231406805219</v>
+        <v>0.3966533844055107</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4379598723088151</v>
+        <v>0.4397520325989599</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4389825459149599</v>
+        <v>0.4419635055056703</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5681802508575652</v>
+        <v>0.5756092307008757</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4755698340045839</v>
+        <v>0.4723615413509191</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5108516198434254</v>
+        <v>0.5114338453458024</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5103553873486476</v>
+        <v>0.5104932251636971</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6214209365789688</v>
+        <v>0.6225096497162559</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5058566647983869</v>
+        <v>0.5058051301162227</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4939957189867798</v>
+        <v>0.4948958765685308</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4639811707470541</v>
+        <v>0.4621480952806417</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5790583521230281</v>
+        <v>0.5792160579180931</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4773098373675459</v>
+        <v>0.4730697338828707</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4912087083808362</v>
+        <v>0.4926715154165888</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.5723098338758306</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6445272765594295</v>
+        <v>0.6445272765594297</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.5257440973760028</v>
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3983559873781584</v>
+        <v>0.3989345845011946</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5249260962844755</v>
+        <v>0.5322784190116299</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.49072293911328</v>
+        <v>0.4913646151536425</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5275842699221933</v>
+        <v>0.5292019876570873</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5029824202270957</v>
+        <v>0.5034751711486374</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5948140700354854</v>
+        <v>0.5935411506427449</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5114608380110215</v>
+        <v>0.5122192108996436</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6074663162380765</v>
+        <v>0.6110207804221999</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4855177877155906</v>
+        <v>0.4823575225997249</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5868499431039728</v>
+        <v>0.5892619006522749</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5208286695852805</v>
+        <v>0.5209202465266336</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5893666420286694</v>
+        <v>0.5878687762400417</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5346918734131931</v>
+        <v>0.5370822420674251</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6561361326703226</v>
+        <v>0.6633993968775964</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.601785841794782</v>
+        <v>0.6025159960417076</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6229299735047163</v>
+        <v>0.6244371655934308</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6186421375680926</v>
+        <v>0.6151003917075635</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6941602185972197</v>
+        <v>0.6926048443479067</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6252319649937214</v>
+        <v>0.6242067297000262</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6768872028508492</v>
+        <v>0.6763859488687511</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5701627753525019</v>
+        <v>0.5692895288117431</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6659858531516072</v>
+        <v>0.6661598250334222</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.600992464175314</v>
+        <v>0.6024203013440255</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6441423937281562</v>
+        <v>0.6438308699970279</v>
       </c>
     </row>
     <row r="25">
@@ -1613,7 +1613,7 @@
         <v>0.1483606250497135</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.187796010631028</v>
+        <v>0.1877960106310279</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1667212087860317</v>
@@ -1637,7 +1637,7 @@
         <v>0.1632986565693131</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1967788046879843</v>
+        <v>0.1967788046879842</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1151228848342048</v>
+        <v>0.1159498670397022</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.154210031930439</v>
+        <v>0.150350976944291</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1370669327622598</v>
+        <v>0.1374089668870654</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1750227934358431</v>
+        <v>0.1762513565262139</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1550358272172512</v>
+        <v>0.1546642785561884</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.193969569612159</v>
+        <v>0.1966468755524213</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.163679838705307</v>
+        <v>0.1649119799062983</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1945448447457685</v>
+        <v>0.1944291555416998</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1377649402942889</v>
+        <v>0.1380627711976847</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1779861242379628</v>
+        <v>0.1788897491775781</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1546243970722453</v>
+        <v>0.1543057590977272</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1886385343941576</v>
+        <v>0.1889832158006785</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1376532844291844</v>
+        <v>0.1379222289862497</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1798397490374349</v>
+        <v>0.1787000417900621</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1620158065290756</v>
+        <v>0.1615976509356556</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2002732370917117</v>
+        <v>0.2010529655499251</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.17999211453439</v>
+        <v>0.1785978354055831</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2229966806479228</v>
+        <v>0.2235727193707665</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1928606882783192</v>
+        <v>0.1916597855280309</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2147840256747564</v>
+        <v>0.21552720684233</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1559975467166324</v>
+        <v>0.1562792237040837</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1975497307028977</v>
+        <v>0.1979334361481288</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1726040855302522</v>
+        <v>0.1719163951746582</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2046487360578197</v>
+        <v>0.2048057457887411</v>
       </c>
     </row>
     <row r="28">
@@ -2037,34 +2037,34 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4364</v>
+        <v>4479</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5714</v>
+        <v>5301</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>15656</v>
+        <v>14590</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>4878</v>
+        <v>4499</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12398</v>
+        <v>12285</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4371</v>
+        <v>4547</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>4833</v>
+        <v>4925</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>4500</v>
+        <v>5750</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18614</v>
+        <v>16546</v>
       </c>
     </row>
     <row r="8">
@@ -2170,37 +2170,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2892</v>
+        <v>2938</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1996</v>
+        <v>1956</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1865</v>
+        <v>1749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3808</v>
+        <v>3644</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1591</v>
+        <v>1657</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2751</v>
+        <v>2766</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8593</v>
+        <v>7966</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2975</v>
+        <v>3026</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2738</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="11">
@@ -2211,40 +2211,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6009</v>
+        <v>6408</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15829</v>
+        <v>15532</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13546</v>
+        <v>12585</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7506</v>
+        <v>6342</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10370</v>
+        <v>10427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18385</v>
+        <v>16410</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6688</v>
+        <v>6604</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10709</v>
+        <v>10580</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12860</v>
+        <v>13161</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>25557</v>
+        <v>26761</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15460</v>
+        <v>15237</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>12723</v>
+        <v>12990</v>
       </c>
     </row>
     <row r="12">
@@ -2347,40 +2347,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9990</v>
+        <v>10246</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21454</v>
+        <v>20658</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12843</v>
+        <v>13088</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13846</v>
+        <v>13863</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18873</v>
+        <v>19271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14728</v>
+        <v>14053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8721</v>
+        <v>8830</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8259</v>
+        <v>8088</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>33950</v>
+        <v>34402</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>41448</v>
+        <v>41925</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26803</v>
+        <v>24724</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>24913</v>
+        <v>24560</v>
       </c>
     </row>
     <row r="15">
@@ -2391,40 +2391,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25372</v>
+        <v>25099</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45305</v>
+        <v>44618</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32657</v>
+        <v>31986</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34905</v>
+        <v>33004</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>40085</v>
+        <v>39970</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33280</v>
+        <v>33978</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25998</v>
+        <v>25223</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20124</v>
+        <v>19380</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59934</v>
+        <v>60545</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>71632</v>
+        <v>71383</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>50927</v>
+        <v>50103</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>47039</v>
+        <v>47452</v>
       </c>
     </row>
     <row r="16">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>52910</v>
+        <v>51333</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>57511</v>
+        <v>55057</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71367</v>
+        <v>71160</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>80853</v>
+        <v>81784</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>41746</v>
+        <v>41401</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65572</v>
+        <v>64430</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>45759</v>
+        <v>48158</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>77039</v>
+        <v>75563</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>101653</v>
+        <v>102693</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>129910</v>
+        <v>129214</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>128871</v>
+        <v>125836</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>163088</v>
+        <v>165041</v>
       </c>
     </row>
     <row r="19">
@@ -2571,40 +2571,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>83170</v>
+        <v>82932</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90645</v>
+        <v>89340</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>109957</v>
+        <v>109482</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>118916</v>
+        <v>119721</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>70110</v>
+        <v>68610</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>99809</v>
+        <v>99334</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>77642</v>
+        <v>78810</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>104231</v>
+        <v>103796</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>143849</v>
+        <v>144547</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>177743</v>
+        <v>178879</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>175168</v>
+        <v>174978</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>209919</v>
+        <v>212769</v>
       </c>
     </row>
     <row r="20">
@@ -2707,40 +2707,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>101032</v>
+        <v>98978</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>132306</v>
+        <v>130210</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>89617</v>
+        <v>89973</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>150015</v>
+        <v>146027</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>113242</v>
+        <v>111397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>158173</v>
+        <v>156130</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>128020</v>
+        <v>129956</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>139661</v>
+        <v>139633</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>220556</v>
+        <v>222431</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>298756</v>
+        <v>298294</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>229318</v>
+        <v>229881</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>298246</v>
+        <v>297794</v>
       </c>
     </row>
     <row r="23">
@@ -2751,40 +2751,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>135914</v>
+        <v>137544</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>172034</v>
+        <v>172299</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>125211</v>
+        <v>126877</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>191427</v>
+        <v>188674</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>152894</v>
+        <v>149996</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>200462</v>
+        <v>200348</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>170375</v>
+        <v>172993</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>172956</v>
+        <v>172875</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>273819</v>
+        <v>275253</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>359718</v>
+        <v>359306</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>286986</v>
+        <v>285914</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>351853</v>
+        <v>352091</v>
       </c>
     </row>
     <row r="24">
@@ -2887,40 +2887,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>96128</v>
+        <v>96891</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>138993</v>
+        <v>139772</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>121707</v>
+        <v>122810</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>174216</v>
+        <v>174601</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>139327</v>
+        <v>139289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>182278</v>
+        <v>183565</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>151056</v>
+        <v>151678</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>188048</v>
+        <v>187209</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>245624</v>
+        <v>246958</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>332151</v>
+        <v>332639</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>284996</v>
+        <v>282454</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>370218</v>
+        <v>371733</v>
       </c>
     </row>
     <row r="27">
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>128439</v>
+        <v>129311</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>176014</v>
+        <v>178316</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>158997</v>
+        <v>157925</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>207486</v>
+        <v>207723</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>175018</v>
+        <v>175065</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>219981</v>
+        <v>220366</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>191093</v>
+        <v>191074</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>216946</v>
+        <v>217341</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>294868</v>
+        <v>293703</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>384369</v>
+        <v>384473</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>339889</v>
+        <v>336869</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>415231</v>
+        <v>416467</v>
       </c>
     </row>
     <row r="28">
@@ -3067,40 +3067,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>83608</v>
+        <v>83730</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>131153</v>
+        <v>132990</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>126115</v>
+        <v>126280</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>163656</v>
+        <v>164157</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>167950</v>
+        <v>168114</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>230667</v>
+        <v>230173</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>204671</v>
+        <v>204974</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>281506</v>
+        <v>283153</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>264020</v>
+        <v>262302</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>374203</v>
+        <v>375741</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>342271</v>
+        <v>342332</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>455939</v>
+        <v>454780</v>
       </c>
     </row>
     <row r="31">
@@ -3111,40 +3111,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>112223</v>
+        <v>112724</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>163936</v>
+        <v>165751</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>154658</v>
+        <v>154845</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>193232</v>
+        <v>193699</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>206570</v>
+        <v>205387</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>269193</v>
+        <v>268589</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>250198</v>
+        <v>249788</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>313676</v>
+        <v>313444</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>310049</v>
+        <v>309575</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>424664</v>
+        <v>424775</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>394952</v>
+        <v>395891</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>498314</v>
+        <v>498073</v>
       </c>
     </row>
     <row r="32">
@@ -3247,40 +3247,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>377088</v>
+        <v>379797</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>527706</v>
+        <v>514500</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>465253</v>
+        <v>466414</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>617980</v>
+        <v>622317</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>523897</v>
+        <v>522641</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>688015</v>
+        <v>697512</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>580170</v>
+        <v>584537</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>726167</v>
+        <v>725735</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>916787</v>
+        <v>918769</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1240389</v>
+        <v>1246686</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1072922</v>
+        <v>1070711</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1370175</v>
+        <v>1372679</v>
       </c>
     </row>
     <row r="35">
@@ -3291,40 +3291,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>450887</v>
+        <v>451768</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>615411</v>
+        <v>611510</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>549938</v>
+        <v>548519</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>707135</v>
+        <v>709888</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>608229</v>
+        <v>603517</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>790975</v>
+        <v>793019</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>683603</v>
+        <v>679346</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>801713</v>
+        <v>804487</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1038120</v>
+        <v>1039995</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1376728</v>
+        <v>1379402</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1197681</v>
+        <v>1192909</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1486465</v>
+        <v>1487606</v>
       </c>
     </row>
     <row r="36">
